--- a/dados_setor_eletrico/BALBINA UATUMA.xlsx
+++ b/dados_setor_eletrico/BALBINA UATUMA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2BB26575-0AC1-4C35-A470-08E83FDB6B92}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+  <si>
+    <t>DATA DADO</t>
+  </si>
+  <si>
+    <t>COD FLU</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>CHUVA</t>
+  </si>
+  <si>
+    <t>VAZAO</t>
+  </si>
+  <si>
+    <t>Balbina Uatuma</t>
+  </si>
+  <si>
+    <t>213.9</t>
+  </si>
+  <si>
+    <t>214.1</t>
+  </si>
+  <si>
+    <t>214.2</t>
+  </si>
+  <si>
+    <t>214.4</t>
+  </si>
+  <si>
+    <t>214.3</t>
+  </si>
+  <si>
+    <t>213.8</t>
+  </si>
+  <si>
+    <t>214.5</t>
+  </si>
+  <si>
+    <t>214.8</t>
+  </si>
+  <si>
+    <t>215.2</t>
+  </si>
+  <si>
+    <t>215.3</t>
+  </si>
+  <si>
+    <t>215.5</t>
+  </si>
+  <si>
+    <t>215.6</t>
+  </si>
+  <si>
+    <t>215.7</t>
+  </si>
+  <si>
+    <t>215.9</t>
+  </si>
+  <si>
+    <t>216.2</t>
+  </si>
+  <si>
+    <t>216.5</t>
+  </si>
+  <si>
+    <t>216.8</t>
+  </si>
+  <si>
+    <t>217.2</t>
+  </si>
+  <si>
+    <t>217.7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +420,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45200.958472222221</v>
+      </c>
+      <c r="B2">
+        <v>16062000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45200.916805555556</v>
+      </c>
+      <c r="B3">
+        <v>16062000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45200.875138888892</v>
+      </c>
+      <c r="B4">
+        <v>16062000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45200.833472222221</v>
+      </c>
+      <c r="B5">
+        <v>16062000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45200.791805555556</v>
+      </c>
+      <c r="B6">
+        <v>16062000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45200.750138888892</v>
+      </c>
+      <c r="B7">
+        <v>16062000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45200.708472222221</v>
+      </c>
+      <c r="B8">
+        <v>16062000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>214</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45200.666805555556</v>
+      </c>
+      <c r="B9">
+        <v>16062000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45200.625138888892</v>
+      </c>
+      <c r="B10">
+        <v>16062000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45200.583472222221</v>
+      </c>
+      <c r="B11">
+        <v>16062000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45200.541805555556</v>
+      </c>
+      <c r="B12">
+        <v>16062000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45200.500138888892</v>
+      </c>
+      <c r="B13">
+        <v>16062000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45200.458472222221</v>
+      </c>
+      <c r="B14">
+        <v>16062000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45200.416805555556</v>
+      </c>
+      <c r="B15">
+        <v>16062000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45200.375138888892</v>
+      </c>
+      <c r="B16">
+        <v>16062000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45200.333472222221</v>
+      </c>
+      <c r="B17">
+        <v>16062000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45200.291805555556</v>
+      </c>
+      <c r="B18">
+        <v>16062000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45200.250138888892</v>
+      </c>
+      <c r="B19">
+        <v>16062000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45200.208472222221</v>
+      </c>
+      <c r="B20">
+        <v>16062000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45200.166805555556</v>
+      </c>
+      <c r="B21">
+        <v>16062000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45200.125138888892</v>
+      </c>
+      <c r="B22">
+        <v>16062000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45200.083472222221</v>
+      </c>
+      <c r="B23">
+        <v>16062000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45200.041805555556</v>
+      </c>
+      <c r="B24">
+        <v>16062000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45200.000138888892</v>
+      </c>
+      <c r="B25">
+        <v>16062000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>